--- a/Fundraising Trends/10YearsFundraising.xlsx
+++ b/Fundraising Trends/10YearsFundraising.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyrodriguez/Desktop/PMC Github/Fundraising Trends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF639E7-2110-BB4B-913B-275AAA2025B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C97E93C-2092-8245-85A9-81CC56E18222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="1560" windowWidth="13520" windowHeight="16440" xr2:uid="{B8057930-22DB-3845-A128-86567A51FCFC}"/>
+    <workbookView xWindow="14040" yWindow="1560" windowWidth="13520" windowHeight="16440" xr2:uid="{B8057930-22DB-3845-A128-86567A51FCFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017EE92A-69A7-4844-AA95-19BCC2B64768}">
   <dimension ref="A1:M369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G374" sqref="G374"/>
     </sheetView>
   </sheetViews>
